--- a/trend_results/Rivers/MangatainokaatScarboroughKoniniRd_264cb3f9f3.xlsx
+++ b/trend_results/Rivers/MangatainokaatScarboroughKoniniRd_264cb3f9f3.xlsx
@@ -441,7 +441,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>variable</t>
+          <t>parameter name</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -755,7 +755,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0.528916946994621</v>
+        <v>0.471083053005379</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -1289,7 +1289,7 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0.656367612162888</v>
+        <v>0.343632387837112</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -2013,7 +2013,7 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>0.0355382388233643</v>
+        <v>0.964461761176636</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -2046,7 +2046,7 @@
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>Extremely unlikely increasing</t>
+          <t>Extremely likely increasing</t>
         </is>
       </c>
       <c r="Q18" t="n">
@@ -2559,7 +2559,7 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>0.598619421457195</v>
+        <v>0.401380578542805</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>

--- a/trend_results/Rivers/MangatainokaatScarboroughKoniniRd_264cb3f9f3.xlsx
+++ b/trend_results/Rivers/MangatainokaatScarboroughKoniniRd_264cb3f9f3.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W35"/>
+  <dimension ref="A1:W33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -573,31 +573,31 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0.039798401647813</v>
+        <v>0.0428144432452743</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.8536585365853659</v>
+        <v>0.902439024390244</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K2" t="n">
-        <v>2.44293783723022</v>
+        <v>3.04650452488688</v>
       </c>
       <c r="L2" t="n">
-        <v>0.154293208318998</v>
+        <v>0.1494588161</v>
       </c>
       <c r="M2" t="n">
-        <v>4.71231157978126</v>
+        <v>7.67594361818662</v>
       </c>
       <c r="N2" t="n">
-        <v>17.4495559802158</v>
+        <v>20.3100301659125</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -664,31 +664,31 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0.113006809675164</v>
+        <v>0.371902112344587</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0256410256410256</v>
+        <v>0.0285714285714286</v>
       </c>
       <c r="H3" t="n">
-        <v>0.794871794871795</v>
+        <v>0.885714285714286</v>
       </c>
       <c r="I3" t="n">
         <v>1</v>
       </c>
       <c r="J3" t="n">
-        <v>1.5</v>
+        <v>1.65</v>
       </c>
       <c r="K3" t="n">
-        <v>-0.181988675958188</v>
+        <v>-0.0274624060150376</v>
       </c>
       <c r="L3" t="n">
-        <v>-0.453726708074534</v>
+        <v>-0.466903421370318</v>
       </c>
       <c r="M3" t="n">
-        <v>0.0415767241005802</v>
+        <v>0.276261092825292</v>
       </c>
       <c r="N3" t="n">
-        <v>-12.1325783972125</v>
+        <v>-1.66438824333561</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -697,7 +697,7 @@
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q3" t="n">
@@ -755,31 +755,31 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0.471083053005379</v>
+        <v>0.386126230518574</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0.898305084745763</v>
+        <v>0.88135593220339</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>10.61</v>
+        <v>10.65</v>
       </c>
       <c r="K4" t="n">
-        <v>-0.0037448735475052</v>
+        <v>-0.0199726589200274</v>
       </c>
       <c r="L4" t="n">
-        <v>-0.116933349154022</v>
+        <v>-0.111887898603212</v>
       </c>
       <c r="M4" t="n">
-        <v>0.0948094181096755</v>
+        <v>0.0717945661465131</v>
       </c>
       <c r="N4" t="n">
-        <v>-0.0352956979029714</v>
+        <v>-0.187536703474435</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -846,10 +846,10 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>0.0169110009596526</v>
+        <v>0.129091758133717</v>
       </c>
       <c r="G5" t="n">
-        <v>0.440677966101695</v>
+        <v>0.474576271186441</v>
       </c>
       <c r="H5" t="n">
         <v>0.135593220338983</v>
@@ -867,7 +867,7 @@
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>0.0007244983765421</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
@@ -879,7 +879,7 @@
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Extremely unlikely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q5" t="n">
@@ -937,31 +937,31 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>0.179830439187544</v>
+        <v>0.150649526427209</v>
       </c>
       <c r="G6" t="n">
         <v>0.0169491525423729</v>
       </c>
       <c r="H6" t="n">
-        <v>0.76271186440678</v>
+        <v>0.796610169491525</v>
       </c>
       <c r="I6" t="n">
         <v>1</v>
       </c>
       <c r="J6" t="n">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="K6" t="n">
-        <v>16.4341957255343</v>
+        <v>16.3387445887446</v>
       </c>
       <c r="L6" t="n">
-        <v>-12.059850530599</v>
+        <v>-9.9481653952346</v>
       </c>
       <c r="M6" t="n">
-        <v>49.6645847446148</v>
+        <v>56.4191144217356</v>
       </c>
       <c r="N6" t="n">
-        <v>9.667173956196651</v>
+        <v>9.12779027304167</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -1024,24 +1024,36 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>&lt; 5 Non-censored values</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr"/>
+          <t>WARNING: Sen slope based on two censored values</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>0.244373972746383</v>
+      </c>
       <c r="G7" t="n">
-        <v>0.925925925925926</v>
+        <v>0.9090909090909089</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0925925925925926</v>
+        <v>0.109090909090909</v>
       </c>
       <c r="I7" t="n">
         <v>1</v>
       </c>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
       <c r="O7" t="inlineStr">
         <is>
           <t>RepSite</t>
@@ -1049,7 +1061,7 @@
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>Not Analysed improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q7" t="n">
@@ -1107,10 +1119,10 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>0.497335009915748</v>
+        <v>0.9999414634634251</v>
       </c>
       <c r="G8" t="n">
-        <v>0.186440677966102</v>
+        <v>0.288135593220339</v>
       </c>
       <c r="H8" t="n">
         <v>0.135593220338983</v>
@@ -1122,16 +1134,16 @@
         <v>0.003</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>-0.0005435267857142</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>-0.0008152901785714001</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>-0.0002717633928571</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>-18.1175595238095</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -1140,7 +1152,7 @@
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Virtually certain improving</t>
         </is>
       </c>
       <c r="Q8" t="n">
@@ -1198,13 +1210,13 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0.318869208949813</v>
+        <v>0.72193658995035</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0.966101694915254</v>
+        <v>0.932203389830508</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1213,16 +1225,16 @@
         <v>0.6850000000000001</v>
       </c>
       <c r="K9" t="n">
-        <v>0.0152879890809827</v>
+        <v>-0.0240824175824176</v>
       </c>
       <c r="L9" t="n">
-        <v>-0.047173523553439</v>
+        <v>-0.0854480882702304</v>
       </c>
       <c r="M9" t="n">
-        <v>0.0965759283547426</v>
+        <v>0.0430529614207251</v>
       </c>
       <c r="N9" t="n">
-        <v>2.23182322350113</v>
+        <v>-3.51568139889308</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -1231,7 +1243,7 @@
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q9" t="n">
@@ -1289,7 +1301,7 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0.343632387837112</v>
+        <v>0.101189282083296</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1301,19 +1313,19 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>7.31</v>
+        <v>7.32</v>
       </c>
       <c r="K10" t="n">
-        <v>-0.0146981891348085</v>
+        <v>-0.0369405815423515</v>
       </c>
       <c r="L10" t="n">
-        <v>-0.0614424952846061</v>
+        <v>-0.0926794093778794</v>
       </c>
       <c r="M10" t="n">
-        <v>0.0336728638209878</v>
+        <v>0.0094080868476062</v>
       </c>
       <c r="N10" t="n">
-        <v>-0.20106961880723</v>
+        <v>-0.5046527533108131</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -1322,7 +1334,7 @@
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>As likely as not increasing</t>
+          <t>Unlikely increasing</t>
         </is>
       </c>
       <c r="Q10" t="n">
@@ -1376,13 +1388,13 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>0.314213250157977</v>
+        <v>0.724113711066695</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0.966101694915254</v>
+        <v>0.9830508474576271</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1391,16 +1403,16 @@
         <v>0.699</v>
       </c>
       <c r="K11" t="n">
-        <v>0.0215282217782218</v>
+        <v>-0.0239739382239381</v>
       </c>
       <c r="L11" t="n">
-        <v>-0.0441624083396673</v>
+        <v>-0.08644199061679041</v>
       </c>
       <c r="M11" t="n">
-        <v>0.09897283296184679</v>
+        <v>0.0408707967399233</v>
       </c>
       <c r="N11" t="n">
-        <v>3.07986005410898</v>
+        <v>-3.42974795764493</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -1409,7 +1421,7 @@
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q11" t="n">
@@ -1452,7 +1464,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Suspended Sediment Concentration</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -1463,35 +1475,35 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>0.258266970512399</v>
+        <v>0.5416814027800529</v>
       </c>
       <c r="G12" t="n">
-        <v>0.491525423728814</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0.338983050847458</v>
+        <v>0.76271186440678</v>
       </c>
       <c r="I12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>1</v>
+        <v>0.87</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>-0.0029987684729064</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>-0.0599282721479536</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>0.0518407372876276</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>-0.344686031368552</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -1500,7 +1512,7 @@
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q12" t="n">
@@ -1531,7 +1543,7 @@
       </c>
       <c r="W12" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -1543,7 +1555,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Total Nitrogen</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -1554,35 +1566,35 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope based on tied non-censored values</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>0.237900130842656</v>
+        <v>0.419470700745387</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0.796610169491525</v>
+        <v>0.508474576271186</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0.91</v>
+        <v>0.012</v>
       </c>
       <c r="K13" t="n">
-        <v>0.021359649122807</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>-0.0315185323530791</v>
+        <v>-0.0008553864168618</v>
       </c>
       <c r="M13" t="n">
-        <v>0.0805857779224714</v>
+        <v>0.0015912720674192</v>
       </c>
       <c r="N13" t="n">
-        <v>2.34721418931945</v>
+        <v>0</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -1591,7 +1603,7 @@
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q13" t="n">
@@ -1634,7 +1646,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Total Phosphorus</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C14" t="n">
@@ -1649,31 +1661,31 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>0.0526279741148281</v>
+        <v>0.833483686153186</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0.491525423728814</v>
+        <v>0.88135593220339</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0.013</v>
+        <v>1.03</v>
       </c>
       <c r="K14" t="n">
-        <v>0.0011725521669341</v>
+        <v>-0.0552478991596639</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>-0.203560753654329</v>
       </c>
       <c r="M14" t="n">
-        <v>0.0026073605391476</v>
+        <v>0.038342723170312</v>
       </c>
       <c r="N14" t="n">
-        <v>9.019632053339921</v>
+        <v>-5.36387370482173</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -1682,7 +1694,7 @@
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>Very unlikely improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q14" t="n">
@@ -1713,7 +1725,7 @@
       </c>
       <c r="W14" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>NTU/FNU</t>
         </is>
       </c>
     </row>
@@ -1725,14 +1737,14 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Turbidity</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -1740,31 +1752,31 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>0.5338787001656931</v>
+        <v>0.0300987184805428</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0.932203389830508</v>
+        <v>0.75</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>1.14</v>
+        <v>11.5</v>
       </c>
       <c r="K15" t="n">
-        <v>-0.0132657384987893</v>
+        <v>1.07467022481335</v>
       </c>
       <c r="L15" t="n">
-        <v>-0.148147334471446</v>
+        <v>0.0883303064624093</v>
       </c>
       <c r="M15" t="n">
-        <v>0.208714285714286</v>
+        <v>1.96062086033009</v>
       </c>
       <c r="N15" t="n">
-        <v>-1.16366127182363</v>
+        <v>9.344958476637871</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -1773,7 +1785,7 @@
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q15" t="n">
@@ -1804,7 +1816,7 @@
       </c>
       <c r="W15" t="inlineStr">
         <is>
-          <t>NTU/FNU</t>
+          <t>mg/m2</t>
         </is>
       </c>
     </row>
@@ -1816,46 +1828,46 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Chlorophyll A</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C16" t="n">
         <v>10</v>
       </c>
       <c r="D16" t="b">
+        <v>0</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>0.041005665863751</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.0117647058823529</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.6941176470588239</v>
+      </c>
+      <c r="I16" t="n">
         <v>1</v>
       </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>0.0101763904081033</v>
-      </c>
-      <c r="G16" t="n">
-        <v>0</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
       <c r="J16" t="n">
-        <v>11.5</v>
+        <v>1.8</v>
       </c>
       <c r="K16" t="n">
-        <v>1.39358333962679</v>
+        <v>-0.101659202585693</v>
       </c>
       <c r="L16" t="n">
-        <v>0.423238529905732</v>
+        <v>-0.211023356440872</v>
       </c>
       <c r="M16" t="n">
-        <v>2.27459091967328</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>12.1181159967547</v>
+        <v>-5.64773347698294</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -1895,7 +1907,7 @@
       </c>
       <c r="W16" t="inlineStr">
         <is>
-          <t>mg/m2</t>
+          <t>m</t>
         </is>
       </c>
     </row>
@@ -1907,14 +1919,14 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Visual Clarity</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C17" t="n">
         <v>10</v>
       </c>
       <c r="D17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -1922,31 +1934,31 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>0.004304293974423</v>
+        <v>0.9893106014502751</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0112359550561798</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0.685393258426966</v>
+        <v>0.823529411764706</v>
       </c>
       <c r="I17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>1.8</v>
+        <v>10.53</v>
       </c>
       <c r="K17" t="n">
-        <v>-0.151113519228228</v>
+        <v>0.0492250673854454</v>
       </c>
       <c r="L17" t="n">
-        <v>-0.245441271946212</v>
+        <v>0.0101568044698017</v>
       </c>
       <c r="M17" t="n">
-        <v>-0.0525908817522569</v>
+        <v>0.0851466199076719</v>
       </c>
       <c r="N17" t="n">
-        <v>-8.395195512679321</v>
+        <v>0.467474524078304</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -1955,7 +1967,7 @@
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely improving</t>
+          <t>Extremely likely increasing</t>
         </is>
       </c>
       <c r="Q17" t="n">
@@ -1986,7 +1998,7 @@
       </c>
       <c r="W17" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -1998,46 +2010,46 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Dissolved Oxygen Concentration</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C18" t="n">
         <v>10</v>
       </c>
       <c r="D18" t="b">
+        <v>0</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>WARNING: Sen slope influenced by censored values</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
+        <v>0.932463167628238</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.394957983193277</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.0840336134453782</v>
+      </c>
+      <c r="I18" t="n">
         <v>1</v>
       </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>0.964461761176636</v>
-      </c>
-      <c r="G18" t="n">
-        <v>0</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0.823529411764706</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
       <c r="J18" t="n">
-        <v>10.42</v>
+        <v>0.005</v>
       </c>
       <c r="K18" t="n">
-        <v>0.0401373626373618</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0.0025468323480835</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0.0737392054307691</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0.385195418784662</v>
+        <v>0</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -2046,7 +2058,7 @@
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>Extremely likely increasing</t>
+          <t>Very likely improving</t>
         </is>
       </c>
       <c r="Q18" t="n">
@@ -2077,7 +2089,7 @@
       </c>
       <c r="W18" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -2089,7 +2101,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Dissolved Reactive Phosphorus</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -2100,35 +2112,35 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>0.824856987480171</v>
+        <v>3.55979001057497e-05</v>
       </c>
       <c r="G19" t="n">
-        <v>0.369747899159664</v>
+        <v>0.0168067226890756</v>
       </c>
       <c r="H19" t="n">
-        <v>0.0840336134453782</v>
+        <v>0.605042016806723</v>
       </c>
       <c r="I19" t="n">
         <v>1</v>
       </c>
       <c r="J19" t="n">
-        <v>0.005</v>
+        <v>130</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>18.0776152980877</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>10.9669782769448</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>26.246375934938</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>13.905857921606</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
@@ -2137,7 +2149,7 @@
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q19" t="n">
@@ -2168,7 +2180,7 @@
       </c>
       <c r="W19" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>E. coli/100 mL</t>
         </is>
       </c>
     </row>
@@ -2180,7 +2192,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>E. coli</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -2191,35 +2203,35 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope based on two censored values</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.40216314374641e-06</v>
+        <v>0.391365936746438</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0168067226890756</v>
+        <v>0.929203539823009</v>
       </c>
       <c r="H20" t="n">
-        <v>0.571428571428571</v>
+        <v>0.079646017699115</v>
       </c>
       <c r="I20" t="n">
         <v>1</v>
       </c>
       <c r="J20" t="n">
-        <v>110</v>
+        <v>0.005</v>
       </c>
       <c r="K20" t="n">
-        <v>18.5443006470881</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>12.530209431961</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>25.5525456512313</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>16.8584551337165</v>
+        <v>0</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
@@ -2228,7 +2240,7 @@
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q20" t="n">
@@ -2259,7 +2271,7 @@
       </c>
       <c r="W20" t="inlineStr">
         <is>
-          <t>E. coli/100 mL</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -2271,7 +2283,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Ammoniacal Nitrogen (NH4)</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C21" t="n">
@@ -2282,35 +2294,35 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope based on two censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>0.415086169786389</v>
+        <v>0.999995452002101</v>
       </c>
       <c r="G21" t="n">
-        <v>0.929203539823009</v>
+        <v>0.235294117647059</v>
       </c>
       <c r="H21" t="n">
-        <v>0.079646017699115</v>
+        <v>0.117647058823529</v>
       </c>
       <c r="I21" t="n">
         <v>1</v>
       </c>
       <c r="J21" t="n">
-        <v>0.005</v>
+        <v>0.003</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>-0.000303112033195</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>-0.0004224985540775</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>-0.0001578681274216</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>-10.103734439834</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
@@ -2319,7 +2331,7 @@
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Virtually certain improving</t>
         </is>
       </c>
       <c r="Q21" t="n">
@@ -2362,14 +2374,14 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Nitrite Nitrogen (NO2)</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C22" t="n">
         <v>10</v>
       </c>
       <c r="D22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -2377,31 +2389,31 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>0.999493029613821</v>
+        <v>0.999211770767704</v>
       </c>
       <c r="G22" t="n">
-        <v>0.176470588235294</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0.126050420168067</v>
+        <v>0.882352941176471</v>
       </c>
       <c r="I22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0.004</v>
+        <v>0.8341</v>
       </c>
       <c r="K22" t="n">
-        <v>-0.0002520703933747</v>
+        <v>-0.04565625</v>
       </c>
       <c r="L22" t="n">
-        <v>-0.0003998357963875</v>
+        <v>-0.075251313869102</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>-0.0299626866913278</v>
       </c>
       <c r="N22" t="n">
-        <v>-6.30175983436853</v>
+        <v>-5.47371418295168</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
@@ -2453,14 +2465,14 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Nitrate Nitrogen (NO3)</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="C23" t="n">
         <v>10</v>
       </c>
       <c r="D23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -2468,31 +2480,31 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>0.9778401252848971</v>
+        <v>0.117028163237481</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0.890756302521008</v>
+        <v>0.623931623931624</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0.862</v>
+        <v>7.3</v>
       </c>
       <c r="K23" t="n">
-        <v>-0.0362363525835866</v>
+        <v>-0.0097443789768871</v>
       </c>
       <c r="L23" t="n">
-        <v>-0.0520217580506416</v>
+        <v>-0.0239004569205966</v>
       </c>
       <c r="M23" t="n">
-        <v>-0.0116489265613534</v>
+        <v>0.0042772924139807</v>
       </c>
       <c r="N23" t="n">
-        <v>-4.20375319995204</v>
+        <v>-0.133484643519003</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
@@ -2501,7 +2513,7 @@
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>Extremely likely improving</t>
+          <t>Unlikely increasing</t>
         </is>
       </c>
       <c r="Q23" t="n">
@@ -2530,11 +2542,7 @@
           <t>Mana_8b</t>
         </is>
       </c>
-      <c r="W23" t="inlineStr">
-        <is>
-          <t>mg/L</t>
-        </is>
-      </c>
+      <c r="W23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -2544,14 +2552,14 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pH</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C24" t="n">
         <v>10</v>
       </c>
       <c r="D24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -2559,31 +2567,31 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>0.401380578542805</v>
+        <v>0.9992768778675361</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0.623931623931624</v>
+        <v>0.9327731092436971</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>7.3</v>
+        <v>0.8398</v>
       </c>
       <c r="K24" t="n">
-        <v>-0.0016996998703986</v>
+        <v>-0.046157967032967</v>
       </c>
       <c r="L24" t="n">
-        <v>-0.0167417876241407</v>
+        <v>-0.0736483691168017</v>
       </c>
       <c r="M24" t="n">
-        <v>0.0133534871769496</v>
+        <v>-0.0284609903082742</v>
       </c>
       <c r="N24" t="n">
-        <v>-0.0232835598684742</v>
+        <v>-5.49630471933401</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
@@ -2592,7 +2600,7 @@
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>As likely as not increasing</t>
+          <t>Virtually certain improving</t>
         </is>
       </c>
       <c r="Q24" t="n">
@@ -2621,7 +2629,11 @@
           <t>Mana_8b</t>
         </is>
       </c>
-      <c r="W24" t="inlineStr"/>
+      <c r="W24" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -2631,7 +2643,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>SIN (Soluble Inorganic nitrogen)</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C25" t="n">
@@ -2646,31 +2658,31 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>0.979148768344975</v>
+        <v>0.99921758912954</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0.92436974789916</v>
+        <v>0.739495798319328</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0.866</v>
+        <v>0.98</v>
       </c>
       <c r="K25" t="n">
-        <v>-0.0351201923076922</v>
+        <v>-0.0410767477203647</v>
       </c>
       <c r="L25" t="n">
-        <v>-0.0548373971206327</v>
+        <v>-0.0600389862534295</v>
       </c>
       <c r="M25" t="n">
-        <v>-0.0107031410619734</v>
+        <v>-0.0232726378231997</v>
       </c>
       <c r="N25" t="n">
-        <v>-4.05544945816307</v>
+        <v>-4.19150486942497</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
@@ -2679,7 +2691,7 @@
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>Extremely likely improving</t>
+          <t>Virtually certain improving</t>
         </is>
       </c>
       <c r="Q25" t="n">
@@ -2722,7 +2734,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Suspended Sediment Concentration</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C26" t="n">
@@ -2733,23 +2745,23 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>WARNING: Sen slope based on tied non-censored values</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>0.112042060081941</v>
+        <v>0.197462078530477</v>
       </c>
       <c r="G26" t="n">
-        <v>0.394957983193277</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0.235294117647059</v>
+        <v>0.327731092436975</v>
       </c>
       <c r="I26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0.5</v>
+        <v>0.011</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -2758,7 +2770,7 @@
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0.0952163712200209</v>
+        <v>0.0005262351478997</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
@@ -2801,7 +2813,7 @@
       </c>
       <c r="W26" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -2813,14 +2825,14 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Total Nitrogen</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C27" t="n">
         <v>10</v>
       </c>
       <c r="D27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -2828,31 +2840,31 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>0.975011243648822</v>
+        <v>0.350646584112094</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0.781512605042017</v>
+        <v>0.899159663865546</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0.99</v>
+        <v>0.95</v>
       </c>
       <c r="K27" t="n">
-        <v>-0.029958988380041</v>
+        <v>0.0091541353383458</v>
       </c>
       <c r="L27" t="n">
-        <v>-0.0485955197523207</v>
+        <v>-0.0256528275427591</v>
       </c>
       <c r="M27" t="n">
-        <v>-0.0070878565143714</v>
+        <v>0.06694676224931149</v>
       </c>
       <c r="N27" t="n">
-        <v>-3.02616044242839</v>
+        <v>0.963593193510087</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
@@ -2861,7 +2873,7 @@
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>Extremely likely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q27" t="n">
@@ -2892,7 +2904,7 @@
       </c>
       <c r="W27" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>NTU/FNU</t>
         </is>
       </c>
     </row>
@@ -2904,11 +2916,11 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Total Phosphorus</t>
+          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D28" t="b">
         <v>0</v>
@@ -2919,31 +2931,31 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>0.0658558701471719</v>
+        <v>0.110335680959923</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0.319327731092437</v>
+        <v>1</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0.011</v>
+        <v>0.42</v>
       </c>
       <c r="K28" t="n">
-        <v>0.0002896510705789</v>
+        <v>-0.0165443732109859</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>-0.0566456908981604</v>
       </c>
       <c r="M28" t="n">
-        <v>0.000648181011535</v>
+        <v>-0.0031320957515263</v>
       </c>
       <c r="N28" t="n">
-        <v>2.63319155071732</v>
+        <v>-3.93913647880617</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
@@ -2952,7 +2964,7 @@
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>Very unlikely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q28" t="n">
@@ -2981,11 +2993,7 @@
           <t>Mana_8b</t>
         </is>
       </c>
-      <c r="W28" t="inlineStr">
-        <is>
-          <t>g/m3</t>
-        </is>
-      </c>
+      <c r="W28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -2995,46 +3003,46 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Turbidity</t>
+          <t>MCI (Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D29" t="b">
+        <v>0</v>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F29" t="n">
+        <v>0.231216363225238</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
         <v>1</v>
       </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="F29" t="n">
-        <v>0.173466757951279</v>
-      </c>
-      <c r="G29" t="n">
-        <v>0</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0.92436974789916</v>
-      </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0.97</v>
+        <v>96</v>
       </c>
       <c r="K29" t="n">
-        <v>0.0200686813186813</v>
+        <v>-2.84045318187747</v>
       </c>
       <c r="L29" t="n">
-        <v>-0.0184222783859364</v>
+        <v>-12.6428475174506</v>
       </c>
       <c r="M29" t="n">
-        <v>0.089508913092035</v>
+        <v>5.6487690293694</v>
       </c>
       <c r="N29" t="n">
-        <v>2.06893621842075</v>
+        <v>-2.95880539778903</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
@@ -3072,11 +3080,7 @@
           <t>Mana_8b</t>
         </is>
       </c>
-      <c r="W29" t="inlineStr">
-        <is>
-          <t>NTU/FNU</t>
-        </is>
-      </c>
+      <c r="W29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -3086,7 +3090,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C30" t="n">
@@ -3101,7 +3105,7 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>0.59675202974633</v>
+        <v>0.110335680959923</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
@@ -3113,19 +3117,19 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0.42</v>
+        <v>5.352</v>
       </c>
       <c r="K30" t="n">
-        <v>0.0070983278795625</v>
+        <v>-0.221670504854465</v>
       </c>
       <c r="L30" t="n">
-        <v>-0.0201550669312053</v>
+        <v>-0.941933836024033</v>
       </c>
       <c r="M30" t="n">
-        <v>0.0176774217805784</v>
+        <v>0.0771395152417638</v>
       </c>
       <c r="N30" t="n">
-        <v>1.6900780665625</v>
+        <v>-4.14182557650346</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
@@ -3134,7 +3138,7 @@
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q30" t="n">
@@ -3173,11 +3177,11 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>MCI (Macroinvertebrate Community Index)</t>
+          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D31" t="b">
         <v>0</v>
@@ -3188,7 +3192,7 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>0.40324797025367</v>
+        <v>0.024548990804633</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -3200,19 +3204,19 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>97</v>
+        <v>0.435</v>
       </c>
       <c r="K31" t="n">
-        <v>-1.69179040412718</v>
+        <v>-0.0161482452142206</v>
       </c>
       <c r="L31" t="n">
-        <v>-5.26868919337441</v>
+        <v>-0.0282827959803959</v>
       </c>
       <c r="M31" t="n">
-        <v>5.6487690293694</v>
+        <v>-0.0060763827702353</v>
       </c>
       <c r="N31" t="n">
-        <v>-1.74411381868782</v>
+        <v>-3.71224027913117</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -3221,7 +3225,7 @@
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q31" t="n">
@@ -3260,11 +3264,11 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+          <t>MCI (Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D32" t="b">
         <v>0</v>
@@ -3275,7 +3279,7 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>0.59675202974633</v>
+        <v>0.036819135060151</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -3287,19 +3291,19 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>5.352</v>
+        <v>99.5</v>
       </c>
       <c r="K32" t="n">
-        <v>0.159606000416334</v>
+        <v>-2.18290588235294</v>
       </c>
       <c r="L32" t="n">
-        <v>-0.871932646901015</v>
+        <v>-4.06022800897701</v>
       </c>
       <c r="M32" t="n">
-        <v>0.758921250004803</v>
+        <v>-0.740800539748255</v>
       </c>
       <c r="N32" t="n">
-        <v>2.98217489567142</v>
+        <v>-2.19387525864617</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
@@ -3308,7 +3312,7 @@
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q32" t="n">
@@ -3347,7 +3351,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C33" t="n">
@@ -3362,7 +3366,7 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>0.087654040404137</v>
+        <v>0.429013828493761</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
@@ -3374,19 +3378,19 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0.44</v>
+        <v>5.621</v>
       </c>
       <c r="K33" t="n">
-        <v>-0.011385569843301</v>
+        <v>-0.0286651898734183</v>
       </c>
       <c r="L33" t="n">
-        <v>-0.0267977291498775</v>
+        <v>-0.207241258389195</v>
       </c>
       <c r="M33" t="n">
-        <v>0.0007360427643492</v>
+        <v>0.0821380675551166</v>
       </c>
       <c r="N33" t="n">
-        <v>-2.58762950984113</v>
+        <v>-0.509966018029145</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
@@ -3395,7 +3399,7 @@
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>Very unlikely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q33" t="n">
@@ -3425,180 +3429,6 @@
         </is>
       </c>
       <c r="W33" t="inlineStr"/>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>Mangatainoka at Scarborough Konini Rd</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>MCI (Macroinvertebrate Community Index)</t>
-        </is>
-      </c>
-      <c r="C34" t="n">
-        <v>10</v>
-      </c>
-      <c r="D34" t="b">
-        <v>0</v>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="F34" t="n">
-        <v>0.125726093254011</v>
-      </c>
-      <c r="G34" t="n">
-        <v>0</v>
-      </c>
-      <c r="H34" t="n">
-        <v>1</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>100</v>
-      </c>
-      <c r="K34" t="n">
-        <v>-1.16024827851135</v>
-      </c>
-      <c r="L34" t="n">
-        <v>-3.30607236875731</v>
-      </c>
-      <c r="M34" t="n">
-        <v>0.9677167726002081</v>
-      </c>
-      <c r="N34" t="n">
-        <v>-1.16024827851135</v>
-      </c>
-      <c r="O34" t="inlineStr">
-        <is>
-          <t>RepSite</t>
-        </is>
-      </c>
-      <c r="P34" t="inlineStr">
-        <is>
-          <t>Unlikely improving</t>
-        </is>
-      </c>
-      <c r="Q34" t="n">
-        <v>1836993.561</v>
-      </c>
-      <c r="R34" t="n">
-        <v>5515692.163</v>
-      </c>
-      <c r="S34" t="inlineStr">
-        <is>
-          <t>Tararua District</t>
-        </is>
-      </c>
-      <c r="T34" t="inlineStr">
-        <is>
-          <t>Manawatū</t>
-        </is>
-      </c>
-      <c r="U34" t="inlineStr">
-        <is>
-          <t>Mangatainoka</t>
-        </is>
-      </c>
-      <c r="V34" t="inlineStr">
-        <is>
-          <t>Mana_8b</t>
-        </is>
-      </c>
-      <c r="W34" t="inlineStr"/>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>Mangatainoka at Scarborough Konini Rd</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
-        </is>
-      </c>
-      <c r="C35" t="n">
-        <v>10</v>
-      </c>
-      <c r="D35" t="b">
-        <v>0</v>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="F35" t="n">
-        <v>0.541517381685568</v>
-      </c>
-      <c r="G35" t="n">
-        <v>0</v>
-      </c>
-      <c r="H35" t="n">
-        <v>1</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>5.89</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0.0330682178588082</v>
-      </c>
-      <c r="L35" t="n">
-        <v>-0.229486708144863</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0.257195616286535</v>
-      </c>
-      <c r="N35" t="n">
-        <v>0.561429844801497</v>
-      </c>
-      <c r="O35" t="inlineStr">
-        <is>
-          <t>RepSite</t>
-        </is>
-      </c>
-      <c r="P35" t="inlineStr">
-        <is>
-          <t>As likely as not improving</t>
-        </is>
-      </c>
-      <c r="Q35" t="n">
-        <v>1836993.561</v>
-      </c>
-      <c r="R35" t="n">
-        <v>5515692.163</v>
-      </c>
-      <c r="S35" t="inlineStr">
-        <is>
-          <t>Tararua District</t>
-        </is>
-      </c>
-      <c r="T35" t="inlineStr">
-        <is>
-          <t>Manawatū</t>
-        </is>
-      </c>
-      <c r="U35" t="inlineStr">
-        <is>
-          <t>Mangatainoka</t>
-        </is>
-      </c>
-      <c r="V35" t="inlineStr">
-        <is>
-          <t>Mana_8b</t>
-        </is>
-      </c>
-      <c r="W35" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/trend_results/Rivers/MangatainokaatScarboroughKoniniRd_264cb3f9f3.xlsx
+++ b/trend_results/Rivers/MangatainokaatScarboroughKoniniRd_264cb3f9f3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="68">
   <si>
     <t>site name</t>
   </si>
@@ -139,46 +139,55 @@
     <t>ok</t>
   </si>
   <si>
+    <t>WARNING: Sen slope based on two censored values</t>
+  </si>
+  <si>
     <t>WARNING: Sen slope influenced by censored values</t>
   </si>
   <si>
-    <t>WARNING: Sen slope based on two censored values</t>
-  </si>
-  <si>
     <t>WARNING: Sen slope based on tied non-censored values</t>
   </si>
   <si>
     <t>RepSite</t>
   </si>
   <si>
+    <t>As likely as not improving</t>
+  </si>
+  <si>
+    <t>Extremely likely improving</t>
+  </si>
+  <si>
+    <t>As likely as not increasing</t>
+  </si>
+  <si>
+    <t>Very unlikely improving</t>
+  </si>
+  <si>
+    <t>Likely improving</t>
+  </si>
+  <si>
+    <t>Virtually certain improving</t>
+  </si>
+  <si>
+    <t>Very likely improving</t>
+  </si>
+  <si>
     <t>Extremely unlikely improving</t>
   </si>
   <si>
-    <t>As likely as not improving</t>
-  </si>
-  <si>
-    <t>As likely as not increasing</t>
-  </si>
-  <si>
     <t>Unlikely improving</t>
   </si>
   <si>
-    <t>Virtually certain improving</t>
-  </si>
-  <si>
-    <t>Likely improving</t>
+    <t>Likely increasing</t>
+  </si>
+  <si>
+    <t>Exceptionally unlikely improving</t>
   </si>
   <si>
     <t>Unlikely increasing</t>
   </si>
   <si>
-    <t>Extremely likely increasing</t>
-  </si>
-  <si>
-    <t>Very likely improving</t>
-  </si>
-  <si>
-    <t>Exceptionally unlikely improving</t>
+    <t>Virtually certain increasing</t>
   </si>
   <si>
     <t>Tararua District</t>
@@ -566,7 +575,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W33"/>
+  <dimension ref="A1:W45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -660,31 +669,31 @@
         <v>40</v>
       </c>
       <c r="F2">
-        <v>0.0428144432452743</v>
+        <v>0.66857799376886</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.902439024390244</v>
+        <v>0.916666666666667</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>15</v>
+        <v>12.5</v>
       </c>
       <c r="K2">
-        <v>3.04650452488688</v>
+        <v>-0.814600684403316</v>
       </c>
       <c r="L2">
-        <v>0.1494588161</v>
+        <v>-2.9130630130482</v>
       </c>
       <c r="M2">
-        <v>7.67594361818662</v>
+        <v>2.45996304792233</v>
       </c>
       <c r="N2">
-        <v>20.3100301659125</v>
+        <v>-6.51680547522653</v>
       </c>
       <c r="O2" t="s">
         <v>44</v>
@@ -699,19 +708,19 @@
         <v>5515692.163</v>
       </c>
       <c r="S2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="T2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="U2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="V2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="W2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -731,31 +740,31 @@
         <v>40</v>
       </c>
       <c r="F3">
-        <v>0.371902112344587</v>
+        <v>0.988957019363898</v>
       </c>
       <c r="G3">
-        <v>0.0285714285714286</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>0.885714285714286</v>
+        <v>0.9655172413793101</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="K3">
-        <v>-0.0274624060150376</v>
+        <v>0.562394254658385</v>
       </c>
       <c r="L3">
-        <v>-0.466903421370318</v>
+        <v>0.0699372311124408</v>
       </c>
       <c r="M3">
-        <v>0.276261092825292</v>
+        <v>1.03163791966728</v>
       </c>
       <c r="N3">
-        <v>-1.66438824333561</v>
+        <v>33.082014979905</v>
       </c>
       <c r="O3" t="s">
         <v>44</v>
@@ -770,19 +779,19 @@
         <v>5515692.163</v>
       </c>
       <c r="S3" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="T3" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="U3" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="V3" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="W3" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -802,31 +811,31 @@
         <v>40</v>
       </c>
       <c r="F4">
-        <v>0.386126230518574</v>
+        <v>0.41294699761489</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.88135593220339</v>
+        <v>0.931034482758621</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>10.65</v>
+        <v>10.625</v>
       </c>
       <c r="K4">
-        <v>-0.0199726589200274</v>
+        <v>-0.0150515109890107</v>
       </c>
       <c r="L4">
-        <v>-0.111887898603212</v>
+        <v>-0.089430076010257</v>
       </c>
       <c r="M4">
-        <v>0.0717945661465131</v>
+        <v>0.0924709962610461</v>
       </c>
       <c r="N4">
-        <v>-0.187536703474435</v>
+        <v>-0.141661279896571</v>
       </c>
       <c r="O4" t="s">
         <v>44</v>
@@ -841,19 +850,19 @@
         <v>5515692.163</v>
       </c>
       <c r="S4" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="T4" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="U4" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="V4" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="W4" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -870,34 +879,34 @@
         <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F5">
-        <v>0.129091758133717</v>
+        <v>0.0777774503856366</v>
       </c>
       <c r="G5">
-        <v>0.474576271186441</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>0.135593220338983</v>
+        <v>0.224137931034483</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0.005</v>
+        <v>0.004</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.0002361021331609</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.000586276083467</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>5.90255332902392</v>
       </c>
       <c r="O5" t="s">
         <v>44</v>
@@ -912,19 +921,19 @@
         <v>5515692.163</v>
       </c>
       <c r="S5" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="T5" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="U5" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="V5" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="W5" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -944,37 +953,37 @@
         <v>40</v>
       </c>
       <c r="F6">
-        <v>0.150649526427209</v>
+        <v>0.849139227696619</v>
       </c>
       <c r="G6">
-        <v>0.0169491525423729</v>
+        <v>0.0175438596491228</v>
       </c>
       <c r="H6">
-        <v>0.796610169491525</v>
+        <v>0.87719298245614</v>
       </c>
       <c r="I6">
         <v>1</v>
       </c>
       <c r="J6">
-        <v>179</v>
+        <v>183.6</v>
       </c>
       <c r="K6">
-        <v>16.3387445887446</v>
+        <v>-21.0638473885665</v>
       </c>
       <c r="L6">
-        <v>-9.9481653952346</v>
+        <v>-62.4692772538274</v>
       </c>
       <c r="M6">
-        <v>56.4191144217356</v>
+        <v>9.626867087443371</v>
       </c>
       <c r="N6">
-        <v>9.12779027304167</v>
+        <v>-11.4726837628358</v>
       </c>
       <c r="O6" t="s">
         <v>44</v>
       </c>
       <c r="P6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Q6">
         <v>1836993.561</v>
@@ -983,19 +992,19 @@
         <v>5515692.163</v>
       </c>
       <c r="S6" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="T6" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="U6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="V6" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="W6" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -1012,16 +1021,16 @@
         <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F7">
-        <v>0.244373972746383</v>
+        <v>0.8480511558082769</v>
       </c>
       <c r="G7">
-        <v>0.9090909090909089</v>
+        <v>0.910714285714286</v>
       </c>
       <c r="H7">
-        <v>0.109090909090909</v>
+        <v>0.107142857142857</v>
       </c>
       <c r="I7">
         <v>1</v>
@@ -1045,7 +1054,7 @@
         <v>44</v>
       </c>
       <c r="P7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Q7">
         <v>1836993.561</v>
@@ -1054,19 +1063,19 @@
         <v>5515692.163</v>
       </c>
       <c r="S7" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="T7" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="U7" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="V7" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="W7" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -1083,40 +1092,40 @@
         <v>0</v>
       </c>
       <c r="E8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F8">
-        <v>0.9999414634634251</v>
+        <v>0.99999959096322</v>
       </c>
       <c r="G8">
-        <v>0.288135593220339</v>
+        <v>0.431034482758621</v>
       </c>
       <c r="H8">
-        <v>0.135593220338983</v>
+        <v>0.103448275862069</v>
       </c>
       <c r="I8">
         <v>1</v>
       </c>
       <c r="J8">
-        <v>0.003</v>
+        <v>0.002</v>
       </c>
       <c r="K8">
-        <v>-0.0005435267857142</v>
+        <v>-0.000506588072122</v>
       </c>
       <c r="L8">
-        <v>-0.0008152901785714001</v>
+        <v>-0.0007147749510763</v>
       </c>
       <c r="M8">
-        <v>-0.0002717633928571</v>
+        <v>-0.0002675824175824</v>
       </c>
       <c r="N8">
-        <v>-18.1175595238095</v>
+        <v>-25.3294036061026</v>
       </c>
       <c r="O8" t="s">
         <v>44</v>
       </c>
       <c r="P8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q8">
         <v>1836993.561</v>
@@ -1125,19 +1134,19 @@
         <v>5515692.163</v>
       </c>
       <c r="S8" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="T8" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="U8" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="V8" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="W8" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1157,37 +1166,37 @@
         <v>40</v>
       </c>
       <c r="F9">
-        <v>0.72193658995035</v>
+        <v>0.815660624302883</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.932203389830508</v>
+        <v>0.931034482758621</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.6850000000000001</v>
+        <v>0.6735</v>
       </c>
       <c r="K9">
-        <v>-0.0240824175824176</v>
+        <v>-0.0327847661188369</v>
       </c>
       <c r="L9">
-        <v>-0.0854480882702304</v>
+        <v>-0.0913277443929658</v>
       </c>
       <c r="M9">
-        <v>0.0430529614207251</v>
+        <v>0.0289340332310007</v>
       </c>
       <c r="N9">
-        <v>-3.51568139889308</v>
+        <v>-4.86781976523191</v>
       </c>
       <c r="O9" t="s">
         <v>44</v>
       </c>
       <c r="P9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q9">
         <v>1836993.561</v>
@@ -1196,19 +1205,19 @@
         <v>5515692.163</v>
       </c>
       <c r="S9" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="T9" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="U9" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="V9" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="W9" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1228,37 +1237,37 @@
         <v>40</v>
       </c>
       <c r="F10">
-        <v>0.101189282083296</v>
+        <v>0.399372241999154</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.827586206896552</v>
+        <v>0.793103448275862</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>7.32</v>
+        <v>7.26</v>
       </c>
       <c r="K10">
-        <v>-0.0369405815423515</v>
+        <v>-0.008238721804511301</v>
       </c>
       <c r="L10">
-        <v>-0.0926794093778794</v>
+        <v>-0.0469607142857142</v>
       </c>
       <c r="M10">
-        <v>0.0094080868476062</v>
+        <v>0.035576298701298</v>
       </c>
       <c r="N10">
-        <v>-0.5046527533108131</v>
+        <v>-0.113481016591065</v>
       </c>
       <c r="O10" t="s">
         <v>44</v>
       </c>
       <c r="P10" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="Q10">
         <v>1836993.561</v>
@@ -1267,16 +1276,16 @@
         <v>5515692.163</v>
       </c>
       <c r="S10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="T10" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="U10" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="V10" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -1296,37 +1305,37 @@
         <v>40</v>
       </c>
       <c r="F11">
-        <v>0.724113711066695</v>
+        <v>0.822699580926828</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.9830508474576271</v>
+        <v>1</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.699</v>
+        <v>0.6805</v>
       </c>
       <c r="K11">
-        <v>-0.0239739382239381</v>
+        <v>-0.0321648727984344</v>
       </c>
       <c r="L11">
-        <v>-0.08644199061679041</v>
+        <v>-0.0929991609090856</v>
       </c>
       <c r="M11">
-        <v>0.0408707967399233</v>
+        <v>0.0275723882266975</v>
       </c>
       <c r="N11">
-        <v>-3.42974795764493</v>
+        <v>-4.72665287265752</v>
       </c>
       <c r="O11" t="s">
         <v>44</v>
       </c>
       <c r="P11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q11">
         <v>1836993.561</v>
@@ -1335,19 +1344,19 @@
         <v>5515692.163</v>
       </c>
       <c r="S11" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="T11" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="U11" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="V11" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="W11" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -1367,37 +1376,37 @@
         <v>40</v>
       </c>
       <c r="F12">
-        <v>0.5416814027800529</v>
+        <v>0.912377513732356</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.76271186440678</v>
+        <v>0.758620689655172</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.87</v>
+        <v>0.86</v>
       </c>
       <c r="K12">
-        <v>-0.0029987684729064</v>
+        <v>-0.0434351351351351</v>
       </c>
       <c r="L12">
-        <v>-0.0599282721479536</v>
+        <v>-0.0940925058548009</v>
       </c>
       <c r="M12">
-        <v>0.0518407372876276</v>
+        <v>0.0066202925355504</v>
       </c>
       <c r="N12">
-        <v>-0.344686031368552</v>
+        <v>-5.05059710873664</v>
       </c>
       <c r="O12" t="s">
         <v>44</v>
       </c>
       <c r="P12" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="Q12">
         <v>1836993.561</v>
@@ -1406,19 +1415,19 @@
         <v>5515692.163</v>
       </c>
       <c r="S12" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="T12" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="U12" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="V12" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="W12" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -1435,40 +1444,40 @@
         <v>0</v>
       </c>
       <c r="E13" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F13">
-        <v>0.419470700745387</v>
+        <v>0.995809230826363</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.508474576271186</v>
+        <v>0.5</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.012</v>
+        <v>0.011</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>-0.0016831797235023</v>
       </c>
       <c r="L13">
-        <v>-0.0008553864168618</v>
+        <v>-0.0033828078923424</v>
       </c>
       <c r="M13">
-        <v>0.0015912720674192</v>
+        <v>-0.0006865601503759</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>-15.301633850021</v>
       </c>
       <c r="O13" t="s">
         <v>44</v>
       </c>
       <c r="P13" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="Q13">
         <v>1836993.561</v>
@@ -1477,19 +1486,19 @@
         <v>5515692.163</v>
       </c>
       <c r="S13" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="T13" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="U13" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="V13" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="W13" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -1509,37 +1518,37 @@
         <v>40</v>
       </c>
       <c r="F14">
-        <v>0.833483686153186</v>
+        <v>0.9821422164400631</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.88135593220339</v>
+        <v>0.827586206896552</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>1.03</v>
+        <v>0.76</v>
       </c>
       <c r="K14">
-        <v>-0.0552478991596639</v>
+        <v>-0.157824074074074</v>
       </c>
       <c r="L14">
-        <v>-0.203560753654329</v>
+        <v>-0.411421419808948</v>
       </c>
       <c r="M14">
-        <v>0.038342723170312</v>
+        <v>-0.0226630172586925</v>
       </c>
       <c r="N14">
-        <v>-5.36387370482173</v>
+        <v>-20.7663255360624</v>
       </c>
       <c r="O14" t="s">
         <v>44</v>
       </c>
       <c r="P14" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="Q14">
         <v>1836993.561</v>
@@ -1548,19 +1557,19 @@
         <v>5515692.163</v>
       </c>
       <c r="S14" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="T14" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="U14" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="V14" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="W14" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -1574,19 +1583,19 @@
         <v>10</v>
       </c>
       <c r="D15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15" t="s">
         <v>40</v>
       </c>
       <c r="F15">
-        <v>0.0300987184805428</v>
+        <v>0.0361108683895109</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.75</v>
+        <v>0.771084337349398</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1595,22 +1604,22 @@
         <v>11.5</v>
       </c>
       <c r="K15">
-        <v>1.07467022481335</v>
+        <v>0.852591036414566</v>
       </c>
       <c r="L15">
-        <v>0.0883303064624093</v>
+        <v>0.0478424576682971</v>
       </c>
       <c r="M15">
-        <v>1.96062086033009</v>
+        <v>1.67084621276474</v>
       </c>
       <c r="N15">
-        <v>9.344958476637871</v>
+        <v>7.41383509925709</v>
       </c>
       <c r="O15" t="s">
         <v>44</v>
       </c>
       <c r="P15" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="Q15">
         <v>1836993.561</v>
@@ -1619,19 +1628,19 @@
         <v>5515692.163</v>
       </c>
       <c r="S15" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="T15" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="U15" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="V15" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="W15" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -1651,37 +1660,37 @@
         <v>40</v>
       </c>
       <c r="F16">
-        <v>0.041005665863751</v>
+        <v>0.111267395364619</v>
       </c>
       <c r="G16">
-        <v>0.0117647058823529</v>
+        <v>0.0123456790123457</v>
       </c>
       <c r="H16">
-        <v>0.6941176470588239</v>
+        <v>0.7654320987654319</v>
       </c>
       <c r="I16">
         <v>1</v>
       </c>
       <c r="J16">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="K16">
-        <v>-0.101659202585693</v>
+        <v>-0.09235868689581089</v>
       </c>
       <c r="L16">
-        <v>-0.211023356440872</v>
+        <v>-0.230477423363473</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.0270059450933434</v>
       </c>
       <c r="N16">
-        <v>-5.64773347698294</v>
+        <v>-4.39803270932433</v>
       </c>
       <c r="O16" t="s">
         <v>44</v>
       </c>
       <c r="P16" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="Q16">
         <v>1836993.561</v>
@@ -1690,19 +1699,19 @@
         <v>5515692.163</v>
       </c>
       <c r="S16" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="T16" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="U16" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="V16" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="W16" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1722,37 +1731,37 @@
         <v>40</v>
       </c>
       <c r="F17">
-        <v>0.9893106014502751</v>
+        <v>0.882594378859771</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.823529411764706</v>
+        <v>0.855932203389831</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>10.53</v>
+        <v>10.56</v>
       </c>
       <c r="K17">
-        <v>0.0492250673854454</v>
+        <v>0.0279885057471262</v>
       </c>
       <c r="L17">
-        <v>0.0101568044698017</v>
+        <v>-0.007996715927750401</v>
       </c>
       <c r="M17">
-        <v>0.0851466199076719</v>
+        <v>0.06511136468839759</v>
       </c>
       <c r="N17">
-        <v>0.467474524078304</v>
+        <v>0.265042668059907</v>
       </c>
       <c r="O17" t="s">
         <v>44</v>
       </c>
       <c r="P17" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="Q17">
         <v>1836993.561</v>
@@ -1761,19 +1770,19 @@
         <v>5515692.163</v>
       </c>
       <c r="S17" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="T17" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="U17" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="V17" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="W17" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1790,16 +1799,16 @@
         <v>0</v>
       </c>
       <c r="E18" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F18">
-        <v>0.932463167628238</v>
+        <v>0.836386729317333</v>
       </c>
       <c r="G18">
-        <v>0.394957983193277</v>
+        <v>0.432203389830508</v>
       </c>
       <c r="H18">
-        <v>0.0840336134453782</v>
+        <v>0.076271186440678</v>
       </c>
       <c r="I18">
         <v>1</v>
@@ -1823,7 +1832,7 @@
         <v>44</v>
       </c>
       <c r="P18" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="Q18">
         <v>1836993.561</v>
@@ -1832,19 +1841,19 @@
         <v>5515692.163</v>
       </c>
       <c r="S18" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="T18" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="U18" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="V18" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="W18" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1864,37 +1873,37 @@
         <v>40</v>
       </c>
       <c r="F19">
-        <v>3.55979001057497E-05</v>
+        <v>0.0040442929012804</v>
       </c>
       <c r="G19">
-        <v>0.0168067226890756</v>
+        <v>0.0170940170940171</v>
       </c>
       <c r="H19">
-        <v>0.605042016806723</v>
+        <v>0.64957264957265</v>
       </c>
       <c r="I19">
         <v>1</v>
       </c>
       <c r="J19">
-        <v>130</v>
+        <v>137.2</v>
       </c>
       <c r="K19">
-        <v>18.0776152980877</v>
+        <v>13.1643449419569</v>
       </c>
       <c r="L19">
-        <v>10.9669782769448</v>
+        <v>4.66358991255127</v>
       </c>
       <c r="M19">
-        <v>26.246375934938</v>
+        <v>21.3072048990469</v>
       </c>
       <c r="N19">
-        <v>13.905857921606</v>
+        <v>9.59500360200939</v>
       </c>
       <c r="O19" t="s">
         <v>44</v>
       </c>
       <c r="P19" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Q19">
         <v>1836993.561</v>
@@ -1903,19 +1912,19 @@
         <v>5515692.163</v>
       </c>
       <c r="S19" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="T19" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="U19" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="V19" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="W19" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -1932,16 +1941,16 @@
         <v>0</v>
       </c>
       <c r="E20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F20">
-        <v>0.391365936746438</v>
+        <v>0.508000863440409</v>
       </c>
       <c r="G20">
-        <v>0.929203539823009</v>
+        <v>0.9375</v>
       </c>
       <c r="H20">
-        <v>0.079646017699115</v>
+        <v>0.0714285714285714</v>
       </c>
       <c r="I20">
         <v>1</v>
@@ -1965,7 +1974,7 @@
         <v>44</v>
       </c>
       <c r="P20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Q20">
         <v>1836993.561</v>
@@ -1974,19 +1983,19 @@
         <v>5515692.163</v>
       </c>
       <c r="S20" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="T20" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="U20" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="V20" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="W20" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -2003,16 +2012,16 @@
         <v>0</v>
       </c>
       <c r="E21" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F21">
-        <v>0.999995452002101</v>
+        <v>0.999999990301161</v>
       </c>
       <c r="G21">
-        <v>0.235294117647059</v>
+        <v>0.322033898305085</v>
       </c>
       <c r="H21">
-        <v>0.117647058823529</v>
+        <v>0.11864406779661</v>
       </c>
       <c r="I21">
         <v>1</v>
@@ -2021,22 +2030,22 @@
         <v>0.003</v>
       </c>
       <c r="K21">
-        <v>-0.000303112033195</v>
+        <v>-0.0003648851148851</v>
       </c>
       <c r="L21">
-        <v>-0.0004224985540775</v>
+        <v>-0.0004937227365010999</v>
       </c>
       <c r="M21">
-        <v>-0.0001578681274216</v>
+        <v>-0.0002455763441519</v>
       </c>
       <c r="N21">
-        <v>-10.103734439834</v>
+        <v>-12.1628371628372</v>
       </c>
       <c r="O21" t="s">
         <v>44</v>
       </c>
       <c r="P21" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q21">
         <v>1836993.561</v>
@@ -2045,19 +2054,19 @@
         <v>5515692.163</v>
       </c>
       <c r="S21" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="T21" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="U21" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="V21" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="W21" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -2071,43 +2080,43 @@
         <v>10</v>
       </c>
       <c r="D22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E22" t="s">
         <v>40</v>
       </c>
       <c r="F22">
-        <v>0.999211770767704</v>
+        <v>0.999908930635375</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.882352941176471</v>
+        <v>0.872881355932203</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.8341</v>
+        <v>0.7585</v>
       </c>
       <c r="K22">
-        <v>-0.04565625</v>
+        <v>-0.0536909937888199</v>
       </c>
       <c r="L22">
-        <v>-0.075251313869102</v>
+        <v>-0.0787216831780605</v>
       </c>
       <c r="M22">
-        <v>-0.0299626866913278</v>
+        <v>-0.0310709359239672</v>
       </c>
       <c r="N22">
-        <v>-5.47371418295168</v>
+        <v>-7.07857531823598</v>
       </c>
       <c r="O22" t="s">
         <v>44</v>
       </c>
       <c r="P22" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q22">
         <v>1836993.561</v>
@@ -2116,19 +2125,19 @@
         <v>5515692.163</v>
       </c>
       <c r="S22" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="T22" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="U22" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="V22" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="W22" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -2148,37 +2157,37 @@
         <v>40</v>
       </c>
       <c r="F23">
-        <v>0.117028163237481</v>
+        <v>0.186660080305244</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.623931623931624</v>
+        <v>0.603448275862069</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>7.3</v>
+        <v>7.29</v>
       </c>
       <c r="K23">
-        <v>-0.0097443789768871</v>
+        <v>-0.006535006789277</v>
       </c>
       <c r="L23">
-        <v>-0.0239004569205966</v>
+        <v>-0.0214852941176471</v>
       </c>
       <c r="M23">
-        <v>0.0042772924139807</v>
+        <v>0.0070511583011583</v>
       </c>
       <c r="N23">
-        <v>-0.133484643519003</v>
+        <v>-0.08964344018212669</v>
       </c>
       <c r="O23" t="s">
         <v>44</v>
       </c>
       <c r="P23" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="Q23">
         <v>1836993.561</v>
@@ -2187,16 +2196,16 @@
         <v>5515692.163</v>
       </c>
       <c r="S23" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="T23" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="U23" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="V23" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="24" spans="1:23">
@@ -2210,43 +2219,43 @@
         <v>10</v>
       </c>
       <c r="D24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E24" t="s">
         <v>40</v>
       </c>
       <c r="F24">
-        <v>0.9992768778675361</v>
+        <v>0.999922229996261</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.9327731092436971</v>
+        <v>0.932203389830508</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.8398</v>
+        <v>0.76425</v>
       </c>
       <c r="K24">
-        <v>-0.046157967032967</v>
+        <v>-0.0540042046605876</v>
       </c>
       <c r="L24">
-        <v>-0.0736483691168017</v>
+        <v>-0.0788760927475476</v>
       </c>
       <c r="M24">
-        <v>-0.0284609903082742</v>
+        <v>-0.03134656658867</v>
       </c>
       <c r="N24">
-        <v>-5.49630471933401</v>
+        <v>-7.06630090423129</v>
       </c>
       <c r="O24" t="s">
         <v>44</v>
       </c>
       <c r="P24" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q24">
         <v>1836993.561</v>
@@ -2255,19 +2264,19 @@
         <v>5515692.163</v>
       </c>
       <c r="S24" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="T24" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="U24" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="V24" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="W24" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="25" spans="1:23">
@@ -2287,37 +2296,37 @@
         <v>40</v>
       </c>
       <c r="F25">
-        <v>0.99921758912954</v>
+        <v>0.999900041552753</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.739495798319328</v>
+        <v>0.711864406779661</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.98</v>
+        <v>0.92</v>
       </c>
       <c r="K25">
-        <v>-0.0410767477203647</v>
+        <v>-0.0500513874614594</v>
       </c>
       <c r="L25">
-        <v>-0.0600389862534295</v>
+        <v>-0.06972732928295421</v>
       </c>
       <c r="M25">
-        <v>-0.0232726378231997</v>
+        <v>-0.0285464333285606</v>
       </c>
       <c r="N25">
-        <v>-4.19150486942497</v>
+        <v>-5.44036820233254</v>
       </c>
       <c r="O25" t="s">
         <v>44</v>
       </c>
       <c r="P25" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q25">
         <v>1836993.561</v>
@@ -2326,19 +2335,19 @@
         <v>5515692.163</v>
       </c>
       <c r="S25" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="T25" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="U25" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="V25" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="W25" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="26" spans="1:23">
@@ -2358,13 +2367,13 @@
         <v>43</v>
       </c>
       <c r="F26">
-        <v>0.197462078530477</v>
+        <v>0.739418588249679</v>
       </c>
       <c r="G26">
         <v>0</v>
       </c>
       <c r="H26">
-        <v>0.327731092436975</v>
+        <v>0.322033898305085</v>
       </c>
       <c r="I26">
         <v>0</v>
@@ -2376,10 +2385,10 @@
         <v>0</v>
       </c>
       <c r="L26">
-        <v>0</v>
+        <v>-0.0003754964615043</v>
       </c>
       <c r="M26">
-        <v>0.0005262351478997</v>
+        <v>0.0001445884476328</v>
       </c>
       <c r="N26">
         <v>0</v>
@@ -2388,7 +2397,7 @@
         <v>44</v>
       </c>
       <c r="P26" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Q26">
         <v>1836993.561</v>
@@ -2397,19 +2406,19 @@
         <v>5515692.163</v>
       </c>
       <c r="S26" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="T26" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="U26" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="V26" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="W26" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="27" spans="1:23">
@@ -2429,37 +2438,37 @@
         <v>40</v>
       </c>
       <c r="F27">
-        <v>0.350646584112094</v>
+        <v>0.875694704933819</v>
       </c>
       <c r="G27">
         <v>0</v>
       </c>
       <c r="H27">
-        <v>0.899159663865546</v>
+        <v>0.8389830508474579</v>
       </c>
       <c r="I27">
         <v>0</v>
       </c>
       <c r="J27">
-        <v>0.95</v>
+        <v>0.86</v>
       </c>
       <c r="K27">
-        <v>0.0091541353383458</v>
+        <v>-0.021766351744186</v>
       </c>
       <c r="L27">
-        <v>-0.0256528275427591</v>
+        <v>-0.0520063086949999</v>
       </c>
       <c r="M27">
-        <v>0.06694676224931149</v>
+        <v>0.0098487086155524</v>
       </c>
       <c r="N27">
-        <v>0.963593193510087</v>
+        <v>-2.53097113304489</v>
       </c>
       <c r="O27" t="s">
         <v>44</v>
       </c>
       <c r="P27" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="Q27">
         <v>1836993.561</v>
@@ -2468,19 +2477,19 @@
         <v>5515692.163</v>
       </c>
       <c r="S27" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="T27" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="U27" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="V27" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="W27" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="28" spans="1:23">
@@ -2488,10 +2497,10 @@
         <v>23</v>
       </c>
       <c r="B28" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="C28">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D28" t="b">
         <v>0</v>
@@ -2500,37 +2509,37 @@
         <v>40</v>
       </c>
       <c r="F28">
-        <v>0.110335680959923</v>
+        <v>0.216843251707906</v>
       </c>
       <c r="G28">
-        <v>0</v>
+        <v>0.008130081300813</v>
       </c>
       <c r="H28">
+        <v>0.585365853658537</v>
+      </c>
+      <c r="I28">
         <v>1</v>
       </c>
-      <c r="I28">
-        <v>0</v>
-      </c>
       <c r="J28">
-        <v>0.42</v>
+        <v>2.2</v>
       </c>
       <c r="K28">
-        <v>-0.0165443732109859</v>
+        <v>-0.0258309759547384</v>
       </c>
       <c r="L28">
-        <v>-0.0566456908981604</v>
+        <v>-0.09666257522850311</v>
       </c>
       <c r="M28">
-        <v>-0.0031320957515263</v>
+        <v>0.0349156272137005</v>
       </c>
       <c r="N28">
-        <v>-3.93913647880617</v>
+        <v>-1.17413527066993</v>
       </c>
       <c r="O28" t="s">
         <v>44</v>
       </c>
       <c r="P28" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="Q28">
         <v>1836993.561</v>
@@ -2539,16 +2548,19 @@
         <v>5515692.163</v>
       </c>
       <c r="S28" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="T28" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="U28" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="V28" t="s">
-        <v>58</v>
+        <v>61</v>
+      </c>
+      <c r="W28" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="29" spans="1:23">
@@ -2556,49 +2568,49 @@
         <v>23</v>
       </c>
       <c r="B29" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="C29">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E29" t="s">
         <v>40</v>
       </c>
       <c r="F29">
-        <v>0.231216363225238</v>
+        <v>0.99541136563914</v>
       </c>
       <c r="G29">
         <v>0</v>
       </c>
       <c r="H29">
-        <v>1</v>
+        <v>0.785276073619632</v>
       </c>
       <c r="I29">
         <v>0</v>
       </c>
       <c r="J29">
-        <v>96</v>
+        <v>10.47</v>
       </c>
       <c r="K29">
-        <v>-2.84045318187747</v>
+        <v>0.0318128230050733</v>
       </c>
       <c r="L29">
-        <v>-12.6428475174506</v>
+        <v>0.0102386139140766</v>
       </c>
       <c r="M29">
-        <v>5.6487690293694</v>
+        <v>0.0579453672110527</v>
       </c>
       <c r="N29">
-        <v>-2.95880539778903</v>
+        <v>0.303847402149697</v>
       </c>
       <c r="O29" t="s">
         <v>44</v>
       </c>
       <c r="P29" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="Q29">
         <v>1836993.561</v>
@@ -2607,16 +2619,19 @@
         <v>5515692.163</v>
       </c>
       <c r="S29" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="T29" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="U29" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="V29" t="s">
-        <v>58</v>
+        <v>61</v>
+      </c>
+      <c r="W29" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="30" spans="1:23">
@@ -2624,49 +2639,49 @@
         <v>23</v>
       </c>
       <c r="B30" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="C30">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D30" t="b">
         <v>0</v>
       </c>
       <c r="E30" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F30">
-        <v>0.110335680959923</v>
+        <v>0.8958053529932301</v>
       </c>
       <c r="G30">
-        <v>0</v>
+        <v>0.417177914110429</v>
       </c>
       <c r="H30">
+        <v>0.0613496932515337</v>
+      </c>
+      <c r="I30">
         <v>1</v>
       </c>
-      <c r="I30">
-        <v>0</v>
-      </c>
       <c r="J30">
-        <v>5.352</v>
+        <v>0.005</v>
       </c>
       <c r="K30">
-        <v>-0.221670504854465</v>
+        <v>0</v>
       </c>
       <c r="L30">
-        <v>-0.941933836024033</v>
+        <v>0</v>
       </c>
       <c r="M30">
-        <v>0.0771395152417638</v>
+        <v>0</v>
       </c>
       <c r="N30">
-        <v>-4.14182557650346</v>
+        <v>0</v>
       </c>
       <c r="O30" t="s">
         <v>44</v>
       </c>
       <c r="P30" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Q30">
         <v>1836993.561</v>
@@ -2675,16 +2690,19 @@
         <v>5515692.163</v>
       </c>
       <c r="S30" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="T30" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="U30" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="V30" t="s">
-        <v>58</v>
+        <v>61</v>
+      </c>
+      <c r="W30" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="31" spans="1:23">
@@ -2692,10 +2710,10 @@
         <v>23</v>
       </c>
       <c r="B31" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="C31">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D31" t="b">
         <v>0</v>
@@ -2704,37 +2722,37 @@
         <v>40</v>
       </c>
       <c r="F31">
-        <v>0.024548990804633</v>
+        <v>5.53765027689399E-06</v>
       </c>
       <c r="G31">
-        <v>0</v>
+        <v>0.0123456790123457</v>
       </c>
       <c r="H31">
+        <v>0.598765432098765</v>
+      </c>
+      <c r="I31">
         <v>1</v>
       </c>
-      <c r="I31">
-        <v>0</v>
-      </c>
       <c r="J31">
-        <v>0.435</v>
+        <v>110</v>
       </c>
       <c r="K31">
-        <v>-0.0161482452142206</v>
+        <v>11.0820349589987</v>
       </c>
       <c r="L31">
-        <v>-0.0282827959803959</v>
+        <v>6.7513680737533</v>
       </c>
       <c r="M31">
-        <v>-0.0060763827702353</v>
+        <v>15.3466386554622</v>
       </c>
       <c r="N31">
-        <v>-3.71224027913117</v>
+        <v>10.0745772354534</v>
       </c>
       <c r="O31" t="s">
         <v>44</v>
       </c>
       <c r="P31" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="Q31">
         <v>1836993.561</v>
@@ -2743,16 +2761,19 @@
         <v>5515692.163</v>
       </c>
       <c r="S31" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="T31" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="U31" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="V31" t="s">
-        <v>58</v>
+        <v>61</v>
+      </c>
+      <c r="W31" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="32" spans="1:23">
@@ -2760,135 +2781,972 @@
         <v>23</v>
       </c>
       <c r="B32" t="s">
+        <v>29</v>
+      </c>
+      <c r="C32">
+        <v>15</v>
+      </c>
+      <c r="D32" t="b">
+        <v>0</v>
+      </c>
+      <c r="E32" t="s">
+        <v>41</v>
+      </c>
+      <c r="F32">
+        <v>0.73370021468609</v>
+      </c>
+      <c r="G32">
+        <v>0.92948717948718</v>
+      </c>
+      <c r="H32">
+        <v>0.0769230769230769</v>
+      </c>
+      <c r="I32">
+        <v>1</v>
+      </c>
+      <c r="J32">
+        <v>0.005</v>
+      </c>
+      <c r="K32">
+        <v>0</v>
+      </c>
+      <c r="L32">
+        <v>0</v>
+      </c>
+      <c r="M32">
+        <v>0</v>
+      </c>
+      <c r="N32">
+        <v>0</v>
+      </c>
+      <c r="O32" t="s">
+        <v>44</v>
+      </c>
+      <c r="P32" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q32">
+        <v>1836993.561</v>
+      </c>
+      <c r="R32">
+        <v>5515692.163</v>
+      </c>
+      <c r="S32" t="s">
+        <v>58</v>
+      </c>
+      <c r="T32" t="s">
+        <v>59</v>
+      </c>
+      <c r="U32" t="s">
+        <v>60</v>
+      </c>
+      <c r="V32" t="s">
+        <v>61</v>
+      </c>
+      <c r="W32" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23">
+      <c r="A33" t="s">
+        <v>23</v>
+      </c>
+      <c r="B33" t="s">
+        <v>30</v>
+      </c>
+      <c r="C33">
+        <v>15</v>
+      </c>
+      <c r="D33" t="b">
+        <v>0</v>
+      </c>
+      <c r="E33" t="s">
+        <v>42</v>
+      </c>
+      <c r="F33">
+        <v>0.999770616233289</v>
+      </c>
+      <c r="G33">
+        <v>0.331288343558282</v>
+      </c>
+      <c r="H33">
+        <v>0.0920245398773006</v>
+      </c>
+      <c r="I33">
+        <v>1</v>
+      </c>
+      <c r="J33">
+        <v>0.003</v>
+      </c>
+      <c r="K33">
+        <v>-0.0001041488451668</v>
+      </c>
+      <c r="L33">
+        <v>-0.0002268633540372</v>
+      </c>
+      <c r="M33">
+        <v>0</v>
+      </c>
+      <c r="N33">
+        <v>-3.47162817222697</v>
+      </c>
+      <c r="O33" t="s">
+        <v>44</v>
+      </c>
+      <c r="P33" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q33">
+        <v>1836993.561</v>
+      </c>
+      <c r="R33">
+        <v>5515692.163</v>
+      </c>
+      <c r="S33" t="s">
+        <v>58</v>
+      </c>
+      <c r="T33" t="s">
+        <v>59</v>
+      </c>
+      <c r="U33" t="s">
+        <v>60</v>
+      </c>
+      <c r="V33" t="s">
+        <v>61</v>
+      </c>
+      <c r="W33" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23">
+      <c r="A34" t="s">
+        <v>23</v>
+      </c>
+      <c r="B34" t="s">
+        <v>31</v>
+      </c>
+      <c r="C34">
+        <v>15</v>
+      </c>
+      <c r="D34" t="b">
+        <v>1</v>
+      </c>
+      <c r="E34" t="s">
+        <v>40</v>
+      </c>
+      <c r="F34">
+        <v>0.999774545613536</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>0.865030674846626</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>0.8341</v>
+      </c>
+      <c r="K34">
+        <v>-0.0330332348855373</v>
+      </c>
+      <c r="L34">
+        <v>-0.0451457237104346</v>
+      </c>
+      <c r="M34">
+        <v>-0.0199792329921157</v>
+      </c>
+      <c r="N34">
+        <v>-3.96034466916884</v>
+      </c>
+      <c r="O34" t="s">
+        <v>44</v>
+      </c>
+      <c r="P34" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q34">
+        <v>1836993.561</v>
+      </c>
+      <c r="R34">
+        <v>5515692.163</v>
+      </c>
+      <c r="S34" t="s">
+        <v>58</v>
+      </c>
+      <c r="T34" t="s">
+        <v>59</v>
+      </c>
+      <c r="U34" t="s">
+        <v>60</v>
+      </c>
+      <c r="V34" t="s">
+        <v>61</v>
+      </c>
+      <c r="W34" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23">
+      <c r="A35" t="s">
+        <v>23</v>
+      </c>
+      <c r="B35" t="s">
+        <v>32</v>
+      </c>
+      <c r="C35">
+        <v>15</v>
+      </c>
+      <c r="D35" t="b">
+        <v>0</v>
+      </c>
+      <c r="E35" t="s">
+        <v>40</v>
+      </c>
+      <c r="F35">
+        <v>0.245343517181124</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0.51875</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>7.29</v>
+      </c>
+      <c r="K35">
+        <v>-0.0034650971162287</v>
+      </c>
+      <c r="L35">
+        <v>-0.0123016114563165</v>
+      </c>
+      <c r="M35">
+        <v>0.0054162425514616</v>
+      </c>
+      <c r="N35">
+        <v>-0.0475321963817383</v>
+      </c>
+      <c r="O35" t="s">
+        <v>44</v>
+      </c>
+      <c r="P35" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q35">
+        <v>1836993.561</v>
+      </c>
+      <c r="R35">
+        <v>5515692.163</v>
+      </c>
+      <c r="S35" t="s">
+        <v>58</v>
+      </c>
+      <c r="T35" t="s">
+        <v>59</v>
+      </c>
+      <c r="U35" t="s">
+        <v>60</v>
+      </c>
+      <c r="V35" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23">
+      <c r="A36" t="s">
+        <v>23</v>
+      </c>
+      <c r="B36" t="s">
+        <v>33</v>
+      </c>
+      <c r="C36">
+        <v>15</v>
+      </c>
+      <c r="D36" t="b">
+        <v>1</v>
+      </c>
+      <c r="E36" t="s">
+        <v>40</v>
+      </c>
+      <c r="F36">
+        <v>0.999823715924398</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>0.94478527607362</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>0.847</v>
+      </c>
+      <c r="K36">
+        <v>-0.0331181207057761</v>
+      </c>
+      <c r="L36">
+        <v>-0.0447381627069003</v>
+      </c>
+      <c r="M36">
+        <v>-0.0200686813186813</v>
+      </c>
+      <c r="N36">
+        <v>-3.91004967010343</v>
+      </c>
+      <c r="O36" t="s">
+        <v>44</v>
+      </c>
+      <c r="P36" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q36">
+        <v>1836993.561</v>
+      </c>
+      <c r="R36">
+        <v>5515692.163</v>
+      </c>
+      <c r="S36" t="s">
+        <v>58</v>
+      </c>
+      <c r="T36" t="s">
+        <v>59</v>
+      </c>
+      <c r="U36" t="s">
+        <v>60</v>
+      </c>
+      <c r="V36" t="s">
+        <v>61</v>
+      </c>
+      <c r="W36" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23">
+      <c r="A37" t="s">
+        <v>23</v>
+      </c>
+      <c r="B37" t="s">
+        <v>34</v>
+      </c>
+      <c r="C37">
+        <v>15</v>
+      </c>
+      <c r="D37" t="b">
+        <v>1</v>
+      </c>
+      <c r="E37" t="s">
+        <v>40</v>
+      </c>
+      <c r="F37">
+        <v>0.999987693312217</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0.6871165644171781</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0.98</v>
+      </c>
+      <c r="K37">
+        <v>-0.0324846716947648</v>
+      </c>
+      <c r="L37">
+        <v>-0.0451698816284169</v>
+      </c>
+      <c r="M37">
+        <v>-0.0223721229444263</v>
+      </c>
+      <c r="N37">
+        <v>-3.31476241783315</v>
+      </c>
+      <c r="O37" t="s">
+        <v>44</v>
+      </c>
+      <c r="P37" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q37">
+        <v>1836993.561</v>
+      </c>
+      <c r="R37">
+        <v>5515692.163</v>
+      </c>
+      <c r="S37" t="s">
+        <v>58</v>
+      </c>
+      <c r="T37" t="s">
+        <v>59</v>
+      </c>
+      <c r="U37" t="s">
+        <v>60</v>
+      </c>
+      <c r="V37" t="s">
+        <v>61</v>
+      </c>
+      <c r="W37" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23">
+      <c r="A38" t="s">
+        <v>23</v>
+      </c>
+      <c r="B38" t="s">
+        <v>35</v>
+      </c>
+      <c r="C38">
+        <v>15</v>
+      </c>
+      <c r="D38" t="b">
+        <v>0</v>
+      </c>
+      <c r="E38" t="s">
+        <v>40</v>
+      </c>
+      <c r="F38">
+        <v>0.875993120000877</v>
+      </c>
+      <c r="G38">
+        <v>0.0184049079754601</v>
+      </c>
+      <c r="H38">
+        <v>0.263803680981595</v>
+      </c>
+      <c r="I38">
+        <v>2</v>
+      </c>
+      <c r="J38">
+        <v>0.011</v>
+      </c>
+      <c r="K38">
+        <v>-9.80800214822772E-05</v>
+      </c>
+      <c r="L38">
+        <v>-0.0003162337662337</v>
+      </c>
+      <c r="M38">
+        <v>0</v>
+      </c>
+      <c r="N38">
+        <v>-0.891636558929793</v>
+      </c>
+      <c r="O38" t="s">
+        <v>44</v>
+      </c>
+      <c r="P38" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q38">
+        <v>1836993.561</v>
+      </c>
+      <c r="R38">
+        <v>5515692.163</v>
+      </c>
+      <c r="S38" t="s">
+        <v>58</v>
+      </c>
+      <c r="T38" t="s">
+        <v>59</v>
+      </c>
+      <c r="U38" t="s">
+        <v>60</v>
+      </c>
+      <c r="V38" t="s">
+        <v>61</v>
+      </c>
+      <c r="W38" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23">
+      <c r="A39" t="s">
+        <v>23</v>
+      </c>
+      <c r="B39" t="s">
+        <v>36</v>
+      </c>
+      <c r="C39">
+        <v>15</v>
+      </c>
+      <c r="D39" t="b">
+        <v>1</v>
+      </c>
+      <c r="E39" t="s">
+        <v>40</v>
+      </c>
+      <c r="F39">
+        <v>0.946778115359069</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <v>0.840490797546012</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>0.91</v>
+      </c>
+      <c r="K39">
+        <v>-0.0161273181739863</v>
+      </c>
+      <c r="L39">
+        <v>-0.0350012723327499</v>
+      </c>
+      <c r="M39">
+        <v>0</v>
+      </c>
+      <c r="N39">
+        <v>-1.77223276637212</v>
+      </c>
+      <c r="O39" t="s">
+        <v>44</v>
+      </c>
+      <c r="P39" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q39">
+        <v>1836993.561</v>
+      </c>
+      <c r="R39">
+        <v>5515692.163</v>
+      </c>
+      <c r="S39" t="s">
+        <v>58</v>
+      </c>
+      <c r="T39" t="s">
+        <v>59</v>
+      </c>
+      <c r="U39" t="s">
+        <v>60</v>
+      </c>
+      <c r="V39" t="s">
+        <v>61</v>
+      </c>
+      <c r="W39" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23">
+      <c r="A40" t="s">
+        <v>23</v>
+      </c>
+      <c r="B40" t="s">
+        <v>37</v>
+      </c>
+      <c r="C40">
+        <v>5</v>
+      </c>
+      <c r="D40" t="b">
+        <v>0</v>
+      </c>
+      <c r="E40" t="s">
+        <v>40</v>
+      </c>
+      <c r="F40">
+        <v>0.231216363225238</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <v>1</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>0.409</v>
+      </c>
+      <c r="K40">
+        <v>-0.018517268442808</v>
+      </c>
+      <c r="L40">
+        <v>-0.0566456908981604</v>
+      </c>
+      <c r="M40">
+        <v>0.0110011862260807</v>
+      </c>
+      <c r="N40">
+        <v>-4.52744949701908</v>
+      </c>
+      <c r="O40" t="s">
+        <v>44</v>
+      </c>
+      <c r="P40" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q40">
+        <v>1836993.561</v>
+      </c>
+      <c r="R40">
+        <v>5515692.163</v>
+      </c>
+      <c r="S40" t="s">
+        <v>58</v>
+      </c>
+      <c r="T40" t="s">
+        <v>59</v>
+      </c>
+      <c r="U40" t="s">
+        <v>60</v>
+      </c>
+      <c r="V40" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23">
+      <c r="A41" t="s">
+        <v>23</v>
+      </c>
+      <c r="B41" t="s">
         <v>38</v>
       </c>
-      <c r="C32">
+      <c r="C41">
+        <v>5</v>
+      </c>
+      <c r="D41" t="b">
+        <v>0</v>
+      </c>
+      <c r="E41" t="s">
+        <v>40</v>
+      </c>
+      <c r="F41">
+        <v>0.5</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="H41">
+        <v>1</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>96</v>
+      </c>
+      <c r="K41">
+        <v>-1.31678598917923</v>
+      </c>
+      <c r="L41">
+        <v>-13.3989557725516</v>
+      </c>
+      <c r="M41">
+        <v>10.9144072433375</v>
+      </c>
+      <c r="N41">
+        <v>-1.3716520720617</v>
+      </c>
+      <c r="O41" t="s">
+        <v>44</v>
+      </c>
+      <c r="P41" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q41">
+        <v>1836993.561</v>
+      </c>
+      <c r="R41">
+        <v>5515692.163</v>
+      </c>
+      <c r="S41" t="s">
+        <v>58</v>
+      </c>
+      <c r="T41" t="s">
+        <v>59</v>
+      </c>
+      <c r="U41" t="s">
+        <v>60</v>
+      </c>
+      <c r="V41" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23">
+      <c r="A42" t="s">
+        <v>23</v>
+      </c>
+      <c r="B42" t="s">
+        <v>39</v>
+      </c>
+      <c r="C42">
+        <v>5</v>
+      </c>
+      <c r="D42" t="b">
+        <v>0</v>
+      </c>
+      <c r="E42" t="s">
+        <v>40</v>
+      </c>
+      <c r="F42">
+        <v>0.04320536648685</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>1</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>4.94</v>
+      </c>
+      <c r="K42">
+        <v>-0.191085614946373</v>
+      </c>
+      <c r="L42">
+        <v>-0.941933836024033</v>
+      </c>
+      <c r="M42">
+        <v>-0.101117206082428</v>
+      </c>
+      <c r="N42">
+        <v>-3.86812985721403</v>
+      </c>
+      <c r="O42" t="s">
+        <v>44</v>
+      </c>
+      <c r="P42" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q42">
+        <v>1836993.561</v>
+      </c>
+      <c r="R42">
+        <v>5515692.163</v>
+      </c>
+      <c r="S42" t="s">
+        <v>58</v>
+      </c>
+      <c r="T42" t="s">
+        <v>59</v>
+      </c>
+      <c r="U42" t="s">
+        <v>60</v>
+      </c>
+      <c r="V42" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="43" spans="1:23">
+      <c r="A43" t="s">
+        <v>23</v>
+      </c>
+      <c r="B43" t="s">
+        <v>37</v>
+      </c>
+      <c r="C43">
         <v>10</v>
       </c>
-      <c r="D32" t="b">
-        <v>0</v>
-      </c>
-      <c r="E32" t="s">
+      <c r="D43" t="b">
+        <v>0</v>
+      </c>
+      <c r="E43" t="s">
         <v>40</v>
       </c>
-      <c r="F32">
+      <c r="F43">
+        <v>0.006133030693106</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+      <c r="H43">
+        <v>1</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>0.425</v>
+      </c>
+      <c r="K43">
+        <v>-0.0221099163679809</v>
+      </c>
+      <c r="L43">
+        <v>-0.0310660623816469</v>
+      </c>
+      <c r="M43">
+        <v>-0.0112778618795689</v>
+      </c>
+      <c r="N43">
+        <v>-5.20233326305433</v>
+      </c>
+      <c r="O43" t="s">
+        <v>44</v>
+      </c>
+      <c r="P43" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q43">
+        <v>1836993.561</v>
+      </c>
+      <c r="R43">
+        <v>5515692.163</v>
+      </c>
+      <c r="S43" t="s">
+        <v>58</v>
+      </c>
+      <c r="T43" t="s">
+        <v>59</v>
+      </c>
+      <c r="U43" t="s">
+        <v>60</v>
+      </c>
+      <c r="V43" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="44" spans="1:23">
+      <c r="A44" t="s">
+        <v>23</v>
+      </c>
+      <c r="B44" t="s">
+        <v>38</v>
+      </c>
+      <c r="C44">
+        <v>10</v>
+      </c>
+      <c r="D44" t="b">
+        <v>0</v>
+      </c>
+      <c r="E44" t="s">
+        <v>40</v>
+      </c>
+      <c r="F44">
+        <v>0.105248850027669</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="H44">
+        <v>1</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>99.02500000000001</v>
+      </c>
+      <c r="K44">
+        <v>-1.0935628742515</v>
+      </c>
+      <c r="L44">
+        <v>-3.80680273096434</v>
+      </c>
+      <c r="M44">
+        <v>0.290222747410242</v>
+      </c>
+      <c r="N44">
+        <v>-1.10433009265488</v>
+      </c>
+      <c r="O44" t="s">
+        <v>44</v>
+      </c>
+      <c r="P44" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q44">
+        <v>1836993.561</v>
+      </c>
+      <c r="R44">
+        <v>5515692.163</v>
+      </c>
+      <c r="S44" t="s">
+        <v>58</v>
+      </c>
+      <c r="T44" t="s">
+        <v>59</v>
+      </c>
+      <c r="U44" t="s">
+        <v>60</v>
+      </c>
+      <c r="V44" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="45" spans="1:23">
+      <c r="A45" t="s">
+        <v>23</v>
+      </c>
+      <c r="B45" t="s">
+        <v>39</v>
+      </c>
+      <c r="C45">
+        <v>10</v>
+      </c>
+      <c r="D45" t="b">
+        <v>0</v>
+      </c>
+      <c r="E45" t="s">
+        <v>40</v>
+      </c>
+      <c r="F45">
         <v>0.036819135060151</v>
       </c>
-      <c r="G32">
-        <v>0</v>
-      </c>
-      <c r="H32">
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
         <v>1</v>
       </c>
-      <c r="I32">
-        <v>0</v>
-      </c>
-      <c r="J32">
-        <v>99.5</v>
-      </c>
-      <c r="K32">
-        <v>-2.18290588235294</v>
-      </c>
-      <c r="L32">
-        <v>-4.06022800897701</v>
-      </c>
-      <c r="M32">
-        <v>-0.740800539748255</v>
-      </c>
-      <c r="N32">
-        <v>-2.19387525864617</v>
-      </c>
-      <c r="O32" t="s">
-        <v>44</v>
-      </c>
-      <c r="P32" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q32">
-        <v>1836993.561</v>
-      </c>
-      <c r="R32">
-        <v>5515692.163</v>
-      </c>
-      <c r="S32" t="s">
-        <v>55</v>
-      </c>
-      <c r="T32" t="s">
-        <v>56</v>
-      </c>
-      <c r="U32" t="s">
-        <v>57</v>
-      </c>
-      <c r="V32" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="33" spans="1:22">
-      <c r="A33" t="s">
-        <v>23</v>
-      </c>
-      <c r="B33" t="s">
-        <v>39</v>
-      </c>
-      <c r="C33">
-        <v>10</v>
-      </c>
-      <c r="D33" t="b">
-        <v>0</v>
-      </c>
-      <c r="E33" t="s">
-        <v>40</v>
-      </c>
-      <c r="F33">
-        <v>0.429013828493761</v>
-      </c>
-      <c r="G33">
-        <v>0</v>
-      </c>
-      <c r="H33">
-        <v>1</v>
-      </c>
-      <c r="I33">
-        <v>0</v>
-      </c>
-      <c r="J33">
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
         <v>5.621</v>
       </c>
-      <c r="K33">
-        <v>-0.0286651898734183</v>
-      </c>
-      <c r="L33">
-        <v>-0.207241258389195</v>
-      </c>
-      <c r="M33">
-        <v>0.0821380675551166</v>
-      </c>
-      <c r="N33">
-        <v>-0.509966018029145</v>
-      </c>
-      <c r="O33" t="s">
-        <v>44</v>
-      </c>
-      <c r="P33" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q33">
-        <v>1836993.561</v>
-      </c>
-      <c r="R33">
-        <v>5515692.163</v>
-      </c>
-      <c r="S33" t="s">
-        <v>55</v>
-      </c>
-      <c r="T33" t="s">
-        <v>56</v>
-      </c>
-      <c r="U33" t="s">
-        <v>57</v>
-      </c>
-      <c r="V33" t="s">
-        <v>58</v>
+      <c r="K45">
+        <v>-0.16087188365651</v>
+      </c>
+      <c r="L45">
+        <v>-0.240721649356369</v>
+      </c>
+      <c r="M45">
+        <v>-0.0228189872816593</v>
+      </c>
+      <c r="N45">
+        <v>-2.86197978396211</v>
+      </c>
+      <c r="O45" t="s">
+        <v>44</v>
+      </c>
+      <c r="P45" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q45">
+        <v>1836993.561</v>
+      </c>
+      <c r="R45">
+        <v>5515692.163</v>
+      </c>
+      <c r="S45" t="s">
+        <v>58</v>
+      </c>
+      <c r="T45" t="s">
+        <v>59</v>
+      </c>
+      <c r="U45" t="s">
+        <v>60</v>
+      </c>
+      <c r="V45" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
